--- a/2024/meetCAL.xlsx
+++ b/2024/meetCAL.xlsx
@@ -912,7 +912,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E12" activeCellId="0" sqref="E12"/>
+      <selection pane="bottomRight" activeCell="P10" activeCellId="0" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
